--- a/output/parents_surveys.xlsx
+++ b/output/parents_surveys.xlsx
@@ -193,32 +193,52 @@
     <author>OutlierDetector</author>
   </authors>
   <commentList>
-    <comment ref="Z82" authorId="0" shapeId="0">
+    <comment ref="P223" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA82" authorId="0" shapeId="0">
+    <comment ref="Z223" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="Z151" authorId="0" shapeId="0">
+    <comment ref="P245" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA151" authorId="0" shapeId="0">
+    <comment ref="Z245" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="Z273" authorId="0" shapeId="0">
+    <comment ref="P246" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA273" authorId="0" shapeId="0">
+    <comment ref="Z246" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="R270" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z270" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="R271" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z271" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
@@ -1123,6 +1143,26 @@
         <t>edge_only</t>
       </text>
     </comment>
+    <comment ref="R415" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z415" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="R433" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z433" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
     <comment ref="A452" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
@@ -1303,6 +1343,36 @@
         <t>edge_only</t>
       </text>
     </comment>
+    <comment ref="P465" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z465" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P479" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z479" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P492" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z492" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
     <comment ref="A546" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
@@ -1481,6 +1551,66 @@
     <comment ref="AJ546" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
+      </text>
+    </comment>
+    <comment ref="R548" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z548" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P550" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z550" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="R606" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z606" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P608" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z608" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P647" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z647" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="P669" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Z669" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
       </text>
     </comment>
   </commentList>
@@ -11107,10 +11237,10 @@
       <c r="Y82" t="n">
         <v>1</v>
       </c>
-      <c r="Z82" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA82" s="6" t="n">
+      <c r="Z82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA82" t="n">
         <v>7</v>
       </c>
       <c r="AB82" t="n">
@@ -19494,10 +19624,10 @@
       <c r="Y151" t="n">
         <v>2</v>
       </c>
-      <c r="Z151" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA151" s="6" t="n">
+      <c r="Z151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA151" t="n">
         <v>7</v>
       </c>
       <c r="AB151" t="n">
@@ -27765,7 +27895,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="P223" t="n">
+      <c r="P223" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q223" t="n">
@@ -27797,7 +27927,7 @@
       <c r="Y223" t="n">
         <v>6</v>
       </c>
-      <c r="Z223" t="n">
+      <c r="Z223" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA223" t="n">
@@ -30460,7 +30590,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P245" t="n">
+      <c r="P245" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q245" t="n">
@@ -30492,7 +30622,7 @@
       <c r="Y245" t="n">
         <v>1</v>
       </c>
-      <c r="Z245" t="n">
+      <c r="Z245" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA245" t="n">
@@ -30587,7 +30717,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P246" t="n">
+      <c r="P246" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q246" t="n">
@@ -30610,7 +30740,7 @@
       <c r="Y246" t="n">
         <v>4</v>
       </c>
-      <c r="Z246" t="n">
+      <c r="Z246" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA246" t="n">
@@ -33533,7 +33663,7 @@
       <c r="Q270" t="n">
         <v>3</v>
       </c>
-      <c r="R270" t="n">
+      <c r="R270" s="6" t="n">
         <v>5</v>
       </c>
       <c r="S270" t="n">
@@ -33550,7 +33680,7 @@
       <c r="Y270" t="n">
         <v>1</v>
       </c>
-      <c r="Z270" t="n">
+      <c r="Z270" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AA270" t="n">
@@ -33651,7 +33781,7 @@
       <c r="Q271" t="n">
         <v>5</v>
       </c>
-      <c r="R271" t="n">
+      <c r="R271" s="6" t="n">
         <v>6</v>
       </c>
       <c r="S271" t="n">
@@ -33677,7 +33807,7 @@
       <c r="Y271" t="n">
         <v>5</v>
       </c>
-      <c r="Z271" t="n">
+      <c r="Z271" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA271" t="n">
@@ -33827,10 +33957,10 @@
       <c r="Y273" t="n">
         <v>1</v>
       </c>
-      <c r="Z273" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA273" s="6" t="n">
+      <c r="Z273" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA273" t="n">
         <v>6</v>
       </c>
       <c r="AB273" t="n">
@@ -49284,7 +49414,7 @@
       <c r="Q415" t="n">
         <v>5</v>
       </c>
-      <c r="R415" t="n">
+      <c r="R415" s="6" t="n">
         <v>5</v>
       </c>
       <c r="S415" t="n">
@@ -49310,7 +49440,7 @@
       <c r="Y415" t="n">
         <v>1</v>
       </c>
-      <c r="Z415" t="n">
+      <c r="Z415" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA415" t="n">
@@ -51290,7 +51420,7 @@
       <c r="Q433" t="n">
         <v>4</v>
       </c>
-      <c r="R433" t="n">
+      <c r="R433" s="6" t="n">
         <v>5</v>
       </c>
       <c r="S433" t="n">
@@ -51316,7 +51446,7 @@
       <c r="Y433" t="n">
         <v>4</v>
       </c>
-      <c r="Z433" t="n">
+      <c r="Z433" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA433" t="n">
@@ -55119,7 +55249,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="P465" t="n">
+      <c r="P465" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q465" t="n">
@@ -55151,7 +55281,7 @@
       <c r="Y465" t="n">
         <v>3</v>
       </c>
-      <c r="Z465" t="n">
+      <c r="Z465" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA465" t="n">
@@ -56834,7 +56964,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="P479" t="n">
+      <c r="P479" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q479" t="n">
@@ -56866,7 +56996,7 @@
       <c r="Y479" t="n">
         <v>5</v>
       </c>
-      <c r="Z479" t="n">
+      <c r="Z479" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA479" t="n">
@@ -57635,7 +57765,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P492" t="n">
+      <c r="P492" s="6" t="n">
         <v>6</v>
       </c>
       <c r="Q492" t="n">
@@ -57658,7 +57788,7 @@
       <c r="Y492" t="n">
         <v>1</v>
       </c>
-      <c r="Z492" t="n">
+      <c r="Z492" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA492" t="n">
@@ -63122,7 +63252,7 @@
       <c r="Q548" t="n">
         <v>5</v>
       </c>
-      <c r="R548" t="n">
+      <c r="R548" s="6" t="n">
         <v>5</v>
       </c>
       <c r="S548" t="n">
@@ -63139,7 +63269,7 @@
       <c r="Y548" t="n">
         <v>2</v>
       </c>
-      <c r="Z548" t="n">
+      <c r="Z548" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA548" t="n">
@@ -63361,7 +63491,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P550" t="n">
+      <c r="P550" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q550" t="n">
@@ -63384,7 +63514,7 @@
       <c r="Y550" t="n">
         <v>2</v>
       </c>
-      <c r="Z550" t="n">
+      <c r="Z550" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA550" t="n">
@@ -70252,7 +70382,7 @@
       <c r="Q606" t="n">
         <v>5</v>
       </c>
-      <c r="R606" t="n">
+      <c r="R606" s="6" t="n">
         <v>6</v>
       </c>
       <c r="S606" t="n">
@@ -70269,7 +70399,7 @@
       <c r="Y606" t="n">
         <v>2</v>
       </c>
-      <c r="Z606" t="n">
+      <c r="Z606" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA606" t="n">
@@ -70486,7 +70616,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="P608" t="n">
+      <c r="P608" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q608" t="n">
@@ -70509,7 +70639,7 @@
       <c r="Y608" t="n">
         <v>5</v>
       </c>
-      <c r="Z608" t="n">
+      <c r="Z608" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AA608" t="n">
@@ -75069,7 +75199,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P647" t="n">
+      <c r="P647" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q647" t="n">
@@ -75101,7 +75231,7 @@
       <c r="Y647" t="n">
         <v>6</v>
       </c>
-      <c r="Z647" t="n">
+      <c r="Z647" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA647" t="n">
@@ -76983,7 +77113,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="P669" t="n">
+      <c r="P669" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Q669" t="n">
@@ -77015,7 +77145,7 @@
       <c r="Y669" t="n">
         <v>3</v>
       </c>
-      <c r="Z669" t="n">
+      <c r="Z669" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AA669" t="n">

--- a/output/parents_surveys.xlsx
+++ b/output/parents_surveys.xlsx
@@ -32,7 +32,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -75,6 +75,12 @@
         <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -111,6 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1906,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ682"/>
+  <dimension ref="A1:AJ683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77322,6 +77329,13 @@
         </is>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="14" t="inlineStr">
+        <is>
+          <t>time_mismatch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
